--- a/NP_EX_2_Sales.xlsx
+++ b/NP_EX_2_Sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Fall 2020\Cis 13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\School CS\CIS 26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2613D97A-796B-4440-B527-0604A0A1FA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E25924-57DA-4DD4-933B-11D866146899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1 A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="10">
-        <v>44141</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="54.5" x14ac:dyDescent="0.3">
@@ -1187,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2683,5 +2683,6 @@
     <brk id="6" min="22" max="45" man="1"/>
     <brk id="14" min="22" max="45" man="1"/>
   </colBreaks>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>